--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45995.80901826297</v>
+        <v>45995.80901826389</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -476,6 +476,26 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'ASDFASFD', 'Director': 'ASDFASF', 'Date': '2025-12-04', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Promote other collaborative arrangements to increase understanding and participation in the multilateral trading system.']}, 'Specific Objectives': {('Engaged Partner Goal', 'Promote other collaborative arrangements to increase understanding and participation in the multilateral trading system.'): ['None']}, 'Activities': {('Engaged Partner Goal', 'Promote other collaborative arrangements to increase understanding and participation in the multilateral trading system.'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45995.91842857986</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ASFD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Excellent Service Goal</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'ASFD', 'Director': '', 'Date': '2025-12-04', 'Version': 'ASDF', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Deliver technical assistance and capacity-building']}, 'Specific Objectives': {('Excellent Service Goal', 'Deliver technical assistance and capacity-building'): ['None']}, 'Activities': {('Excellent Service Goal', 'Deliver technical assistance and capacity-building'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes': []}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45995.91842857986</v>
+        <v>45995.91842857639</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -494,6 +494,26 @@
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'ASFD', 'Director': '', 'Date': '2025-12-04', 'Version': 'ASDF', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Deliver technical assistance and capacity-building']}, 'Specific Objectives': {('Excellent Service Goal', 'Deliver technical assistance and capacity-building'): ['None']}, 'Activities': {('Excellent Service Goal', 'Deliver technical assistance and capacity-building'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45995.92719701301</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ASFD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Excellent Service Goal</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'ASFD', 'Director': '', 'Date': '2025-12-04', 'Version': 'ASDF', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Deliver technical assistance and capacity-building']}, 'Specific Objectives': {('Excellent Service Goal', 'Deliver technical assistance and capacity-building'): ['None']}, 'Activities': {('Excellent Service Goal', 'Deliver technical assistance and capacity-building'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes': []}</t>
         </is>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45995.92719701301</v>
+        <v>45995.92719701389</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -516,6 +516,26 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'ASFD', 'Director': '', 'Date': '2025-12-04', 'Version': 'ASDF', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Deliver technical assistance and capacity-building']}, 'Specific Objectives': {('Excellent Service Goal', 'Deliver technical assistance and capacity-building'): ['None']}, 'Activities': {('Excellent Service Goal', 'Deliver technical assistance and capacity-building'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45995.93083046185</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>asdfasdf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Excellent Service Goal</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'asdfasdf', 'Director': 'asdfasfd', 'Date': '2025-12-04', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Provide accession and post-accession support']}, 'Specific Objectives': {('Excellent Service Goal', 'Provide accession and post-accession support'): ['None']}, 'Activities': {('Excellent Service Goal', 'Provide accession and post-accession support'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes': []}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45995.93083046185</v>
+        <v>45995.93083046296</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -534,6 +534,26 @@
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'asdfasdf', 'Director': 'asdfasfd', 'Date': '2025-12-04', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Provide accession and post-accession support']}, 'Specific Objectives': {('Excellent Service Goal', 'Provide accession and post-accession support'): ['None']}, 'Activities': {('Excellent Service Goal', 'Provide accession and post-accession support'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45995.93177875116</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>asdfasdf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Excellent Service Goal</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'asdfasdf', 'Director': 'asdfasfd', 'Date': '2025-12-04', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Provide accession and post-accession support']}, 'Specific Objectives': {('Excellent Service Goal', 'Provide accession and post-accession support'): ['None']}, 'Activities': {('Excellent Service Goal', 'Provide accession and post-accession support'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes': []}</t>
         </is>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,13 +461,9 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45995.80901826389</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ASDFASFD</t>
-        </is>
-      </c>
+        <v>45996.59320153758</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>Engaged Partner Goal</t>
@@ -475,87 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'Cover': {'Division': 'ASDFASFD', 'Director': 'ASDFASF', 'Date': '2025-12-04', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Promote other collaborative arrangements to increase understanding and participation in the multilateral trading system.']}, 'Specific Objectives': {('Engaged Partner Goal', 'Promote other collaborative arrangements to increase understanding and participation in the multilateral trading system.'): ['None']}, 'Activities': {('Engaged Partner Goal', 'Promote other collaborative arrangements to increase understanding and participation in the multilateral trading system.'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45995.91842857639</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ASFD</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Excellent Service Goal</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>{'Cover': {'Division': 'ASFD', 'Director': '', 'Date': '2025-12-04', 'Version': 'ASDF', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Deliver technical assistance and capacity-building']}, 'Specific Objectives': {('Excellent Service Goal', 'Deliver technical assistance and capacity-building'): ['None']}, 'Activities': {('Excellent Service Goal', 'Deliver technical assistance and capacity-building'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45995.92719701389</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ASFD</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Excellent Service Goal</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>{'Cover': {'Division': 'ASFD', 'Director': '', 'Date': '2025-12-04', 'Version': 'ASDF', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Deliver technical assistance and capacity-building']}, 'Specific Objectives': {('Excellent Service Goal', 'Deliver technical assistance and capacity-building'): ['None']}, 'Activities': {('Excellent Service Goal', 'Deliver technical assistance and capacity-building'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45995.93083046296</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>asdfasdf</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Excellent Service Goal</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>{'Cover': {'Division': 'asdfasdf', 'Director': 'asdfasfd', 'Date': '2025-12-04', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Provide accession and post-accession support']}, 'Specific Objectives': {('Excellent Service Goal', 'Provide accession and post-accession support'): ['None']}, 'Activities': {('Excellent Service Goal', 'Provide accession and post-accession support'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45995.93177875116</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>asdfasdf</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Excellent Service Goal</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>{'Cover': {'Division': 'asdfasdf', 'Director': 'asdfasfd', 'Date': '2025-12-04', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Provide accession and post-accession support']}, 'Specific Objectives': {('Excellent Service Goal', 'Provide accession and post-accession support'): ['None']}, 'Activities': {('Excellent Service Goal', 'Provide accession and post-accession support'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes': []}</t>
+          <t>{'Cover': {'Division': '', 'Director': 'asfdasdf', 'Date': '2025-12-05', 'Version': 'asdf', 'FTEs': 'asdf', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ', 'asfd']}, 'Specific Objectives': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): ['None'], ('Engaged Partner Goal', 'asfd'): ['None']}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': [], 'results': []}, ('Engaged Partner Goal', 'asfd'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': []}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45996.59320153758</v>
+        <v>45996.59320153935</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
@@ -472,6 +472,22 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': '', 'Director': 'asfdasdf', 'Date': '2025-12-05', 'Version': 'asdf', 'FTEs': 'asdf', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ', 'asfd']}, 'Specific Objectives': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): ['None'], ('Engaged Partner Goal', 'asfd'): ['None']}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': [], 'results': []}, ('Engaged Partner Goal', 'asfd'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45996.59710740228</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Global Platform Goal</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': '', 'Director': 'asf', 'Date': '2025-12-05', 'Version': 'adsfasdfasf', 'FTEs': 'asfd', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Global Platform Goal'], 'Aggregate Objectives': {'Global Platform Goal': ['Promote outreach to Members and other stakeholders through the organization and support of events, briefings and programs', 'asdf']}, 'Specific Objectives': {('Global Platform Goal', 'Promote outreach to Members and other stakeholders through the organization and support of events, briefings and programs'): ['None'], ('Global Platform Goal', 'asdf'): ['None']}, 'Activities': {('Global Platform Goal', 'Promote outreach to Members and other stakeholders through the organization and support of events, briefings and programs'): {'activities': ['asdf'], 'results': ['asdf']}, ('Global Platform Goal', 'asdf'): {'activities': ['asfd'], 'results': ['asdf']}}, 'Goal Metrics': {'Global Platform Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': []}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45996.59710740228</v>
+        <v>45996.5971074074</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
@@ -488,6 +488,26 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': '', 'Director': 'asf', 'Date': '2025-12-05', 'Version': 'adsfasdfasf', 'FTEs': 'asfd', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Global Platform Goal'], 'Aggregate Objectives': {'Global Platform Goal': ['Promote outreach to Members and other stakeholders through the organization and support of events, briefings and programs', 'asdf']}, 'Specific Objectives': {('Global Platform Goal', 'Promote outreach to Members and other stakeholders through the organization and support of events, briefings and programs'): ['None'], ('Global Platform Goal', 'asdf'): ['None']}, 'Activities': {('Global Platform Goal', 'Promote outreach to Members and other stakeholders through the organization and support of events, briefings and programs'): {'activities': ['asdf'], 'results': ['asdf']}, ('Global Platform Goal', 'asdf'): {'activities': ['asfd'], 'results': ['asdf']}}, 'Goal Metrics': {'Global Platform Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45996.60791728491</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>adsfa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Excellent Service Goal</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'adsfa', 'Director': '', 'Date': '2025-12-05', 'Version': '', 'FTEs': '123', 'Financial Resources': 'asdasfd', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Provide accession and post-accession support']}, 'Specific Objectives': {('Excellent Service Goal', 'Provide accession and post-accession support'): ['None']}, 'Activities': {('Excellent Service Goal', 'Provide accession and post-accession support'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': []}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45996.60791728491</v>
+        <v>45996.60791728009</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -508,6 +508,26 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'adsfa', 'Director': '', 'Date': '2025-12-05', 'Version': '', 'FTEs': '123', 'Financial Resources': 'asdasfd', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Provide accession and post-accession support']}, 'Specific Objectives': {('Excellent Service Goal', 'Provide accession and post-accession support'): ['None']}, 'Activities': {('Excellent Service Goal', 'Provide accession and post-accession support'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45996.61798976838</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Excellent Service Goal</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'asdf', 'Director': 'asdf', 'Date': '2025-12-05', 'Version': 'asdf', 'FTEs': '45678', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Deliver technical assistance and capacity-building', 'Support Members in trade policy reviews and follow-up', 'asdfasfd']}, 'Activities': {('Excellent Service Goal', 'Deliver technical assistance and capacity-building'): {'activities': [], 'results': []}, ('Excellent Service Goal', 'Support Members in trade policy reviews and follow-up'): {'activities': [], 'results': []}, ('Excellent Service Goal', 'asdfasfd'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': []}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,73 +461,21 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45996.59320153935</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+        <v>45999.56996518071</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ld</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engaged Partner Goal</t>
+          <t>Excellent Service Goal, Global Platform Goal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'Cover': {'Division': '', 'Director': 'asfdasdf', 'Date': '2025-12-05', 'Version': 'asdf', 'FTEs': 'asdf', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ', 'asfd']}, 'Specific Objectives': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): ['None'], ('Engaged Partner Goal', 'asfd'): ['None']}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': [], 'results': []}, ('Engaged Partner Goal', 'asfd'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45996.5971074074</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Global Platform Goal</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>{'Cover': {'Division': '', 'Director': 'asf', 'Date': '2025-12-05', 'Version': 'adsfasdfasf', 'FTEs': 'asfd', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Global Platform Goal'], 'Aggregate Objectives': {'Global Platform Goal': ['Promote outreach to Members and other stakeholders through the organization and support of events, briefings and programs', 'asdf']}, 'Specific Objectives': {('Global Platform Goal', 'Promote outreach to Members and other stakeholders through the organization and support of events, briefings and programs'): ['None'], ('Global Platform Goal', 'asdf'): ['None']}, 'Activities': {('Global Platform Goal', 'Promote outreach to Members and other stakeholders through the organization and support of events, briefings and programs'): {'activities': ['asdf'], 'results': ['asdf']}, ('Global Platform Goal', 'asdf'): {'activities': ['asfd'], 'results': ['asdf']}}, 'Goal Metrics': {'Global Platform Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45996.60791728009</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>adsfa</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Excellent Service Goal</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>{'Cover': {'Division': 'adsfa', 'Director': '', 'Date': '2025-12-05', 'Version': '', 'FTEs': '123', 'Financial Resources': 'asdasfd', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Provide accession and post-accession support']}, 'Specific Objectives': {('Excellent Service Goal', 'Provide accession and post-accession support'): ['None']}, 'Activities': {('Excellent Service Goal', 'Provide accession and post-accession support'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45996.61798976838</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>asdf</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Excellent Service Goal</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>{'Cover': {'Division': 'asdf', 'Director': 'asdf', 'Date': '2025-12-05', 'Version': 'asdf', 'FTEs': '45678', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Deliver technical assistance and capacity-building', 'Support Members in trade policy reviews and follow-up', 'asdfasfd']}, 'Activities': {('Excellent Service Goal', 'Deliver technical assistance and capacity-building'): {'activities': [], 'results': []}, ('Excellent Service Goal', 'Support Members in trade policy reviews and follow-up'): {'activities': [], 'results': []}, ('Excellent Service Goal', 'asdfasfd'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': []}</t>
+          <t>{'Cover': {'Division': 'ld', 'Director': 'asdf', 'Date': '2025-12-08', 'Version': '', 'FTEs': 'dfs', 'Financial Resources': '32', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal', 'Global Platform Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Support Members in the preparation and submission of notifications', 'Deliver technical assistance and capacity-building'], 'Global Platform Goal': ['Promote outreach to Members and other stakeholders through the organization and support of events, briefings and programs']}, 'Activities': {('Excellent Service Goal', 'Support Members in the preparation and submission of notifications'): {'activities': [], 'results': []}, ('Excellent Service Goal', 'Deliver technical assistance and capacity-building'): {'activities': [], 'results': []}, ('Global Platform Goal', 'Promote outreach to Members and other stakeholders through the organization and support of events, briefings and programs'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}, 'Global Platform Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': []}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45999.56996518071</v>
+        <v>45999.56996518518</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -476,6 +476,22 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'ld', 'Director': 'asdf', 'Date': '2025-12-08', 'Version': '', 'FTEs': 'dfs', 'Financial Resources': '32', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal', 'Global Platform Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Support Members in the preparation and submission of notifications', 'Deliver technical assistance and capacity-building'], 'Global Platform Goal': ['Promote outreach to Members and other stakeholders through the organization and support of events, briefings and programs']}, 'Activities': {('Excellent Service Goal', 'Support Members in the preparation and submission of notifications'): {'activities': [], 'results': []}, ('Excellent Service Goal', 'Deliver technical assistance and capacity-building'): {'activities': [], 'results': []}, ('Global Platform Goal', 'Promote outreach to Members and other stakeholders through the organization and support of events, briefings and programs'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}, 'Global Platform Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45999.6631975042</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Excellent Service Goal, Engaged Partner Goal</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': '', 'Director': '', 'Date': '2025-12-08', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal', 'Engaged Partner Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Facilitate and support negotiations and discussions on WTO Reform', 'Support Members in the preparation and submission of notifications'], 'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ']}, 'Activities': {('Excellent Service Goal', 'Facilitate and support negotiations and discussions on WTO Reform'): {'activities': [], 'results': []}, ('Excellent Service Goal', 'Support Members in the preparation and submission of notifications'): {'activities': [], 'results': []}, ('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': ['test'], 'results': ['test']}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}, 'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': 'test', 'Other Information': ''}, 'Annexes_Saved': []}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,37 +461,21 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45999.56996518518</v>
+        <v>46002.64178561055</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ld</t>
+          <t>asfd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Excellent Service Goal, Global Platform Goal</t>
+          <t>Engaged Partner Goal, Excellent Service Goal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'Cover': {'Division': 'ld', 'Director': 'asdf', 'Date': '2025-12-08', 'Version': '', 'FTEs': 'dfs', 'Financial Resources': '32', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal', 'Global Platform Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Support Members in the preparation and submission of notifications', 'Deliver technical assistance and capacity-building'], 'Global Platform Goal': ['Promote outreach to Members and other stakeholders through the organization and support of events, briefings and programs']}, 'Activities': {('Excellent Service Goal', 'Support Members in the preparation and submission of notifications'): {'activities': [], 'results': []}, ('Excellent Service Goal', 'Deliver technical assistance and capacity-building'): {'activities': [], 'results': []}, ('Global Platform Goal', 'Promote outreach to Members and other stakeholders through the organization and support of events, briefings and programs'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}, 'Global Platform Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45999.6631975042</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Excellent Service Goal, Engaged Partner Goal</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>{'Cover': {'Division': '', 'Director': '', 'Date': '2025-12-08', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal', 'Engaged Partner Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Facilitate and support negotiations and discussions on WTO Reform', 'Support Members in the preparation and submission of notifications'], 'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ']}, 'Activities': {('Excellent Service Goal', 'Facilitate and support negotiations and discussions on WTO Reform'): {'activities': [], 'results': []}, ('Excellent Service Goal', 'Support Members in the preparation and submission of notifications'): {'activities': [], 'results': []}, ('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': ['test'], 'results': ['test']}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}, 'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': 'test', 'Other Information': ''}, 'Annexes_Saved': []}</t>
+          <t>{'Cover': {'Division': 'asfd', 'Director': 'asdf', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal', 'Excellent Service Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships '], 'Excellent Service Goal': []}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': ['asdf'], 'results': ['asfd']}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '12', 'Financial Resources': '23', 'KPIs': '', 'Other Metrics': ''}, 'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': 'asfd', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': []}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46002.64178561055</v>
+        <v>46002.64178561343</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -476,6 +476,26 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'asfd', 'Director': 'asdf', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal', 'Excellent Service Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships '], 'Excellent Service Goal': []}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': ['asdf'], 'results': ['asfd']}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '12', 'Financial Resources': '23', 'KPIs': '', 'Other Metrics': ''}, 'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': 'asfd', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>46002.70099036021</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ASDF</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Engaged Partner Goal, Forward-looking Organization Goal</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'ASDF', 'Director': 'ASDF', 'Date': '2025-12-11', 'Version': 'ASDF', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal', 'Forward-looking Organization Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ', 'ASDFASFD'], 'Forward-looking Organization Goal': ["Strengthen the Secretariat's digital and AI capabilities\xa0and security"]}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': ['ASDF'], 'results': ['ASFD']}, ('Engaged Partner Goal', 'ASDFASFD'): {'activities': ['ASFD'], 'results': ['ASFD']}, ('Forward-looking Organization Goal', "Strengthen the Secretariat's digital and AI capabilities\xa0and security"): {'activities': ['ASFD'], 'results': ['ASDF']}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '12', 'Financial Resources': '23', 'KPIs': '', 'Other Metrics': ''}, 'Forward-looking Organization Goal': {'FTEs': '', 'Financial Resources': '23', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships ', 'AGGREGATE'): {'FTEs': '12', 'Financial Resources': '34', 'KPIs': '', 'Other Metrics': ''}, ('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships ', 'RES_ASFD'): {'FTEs': '12', 'Financial Resources': '23', 'KPIs': '', 'Other Metrics': ''}, ('Engaged Partner Goal', 'ASDFASFD', 'AGGREGATE'): {'FTEs': '12', 'Financial Resources': '34', 'KPIs': '', 'Other Metrics': ''}, ('Engaged Partner Goal', 'ASDFASFD', 'RES_ASFD'): {'FTEs': '12', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}, ('Forward-looking Organization Goal', "Strengthen the Secretariat's digital and AI capabilities\xa0and security", 'AGGREGATE'): {'FTEs': '12', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}, ('Forward-looking Organization Goal', "Strengthen the Secretariat's digital and AI capabilities\xa0and security", 'RES_ASDF'): {'FTEs': '12', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Additional': {'Partnerships': 'ASDF', 'Events': 'ASDF', 'Knowledge Products': 'ASDF', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': 'ASDF', 'Other Information': 'ASDF'}, 'Annexes_Saved': []}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46002.70099036021</v>
+        <v>46002.7009903588</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -496,6 +496,26 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'ASDF', 'Director': 'ASDF', 'Date': '2025-12-11', 'Version': 'ASDF', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal', 'Forward-looking Organization Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ', 'ASDFASFD'], 'Forward-looking Organization Goal': ["Strengthen the Secretariat's digital and AI capabilities\xa0and security"]}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': ['ASDF'], 'results': ['ASFD']}, ('Engaged Partner Goal', 'ASDFASFD'): {'activities': ['ASFD'], 'results': ['ASFD']}, ('Forward-looking Organization Goal', "Strengthen the Secretariat's digital and AI capabilities\xa0and security"): {'activities': ['ASFD'], 'results': ['ASDF']}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '12', 'Financial Resources': '23', 'KPIs': '', 'Other Metrics': ''}, 'Forward-looking Organization Goal': {'FTEs': '', 'Financial Resources': '23', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships ', 'AGGREGATE'): {'FTEs': '12', 'Financial Resources': '34', 'KPIs': '', 'Other Metrics': ''}, ('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships ', 'RES_ASFD'): {'FTEs': '12', 'Financial Resources': '23', 'KPIs': '', 'Other Metrics': ''}, ('Engaged Partner Goal', 'ASDFASFD', 'AGGREGATE'): {'FTEs': '12', 'Financial Resources': '34', 'KPIs': '', 'Other Metrics': ''}, ('Engaged Partner Goal', 'ASDFASFD', 'RES_ASFD'): {'FTEs': '12', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}, ('Forward-looking Organization Goal', "Strengthen the Secretariat's digital and AI capabilities\xa0and security", 'AGGREGATE'): {'FTEs': '12', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}, ('Forward-looking Organization Goal', "Strengthen the Secretariat's digital and AI capabilities\xa0and security", 'RES_ASDF'): {'FTEs': '12', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Additional': {'Partnerships': 'ASDF', 'Events': 'ASDF', 'Knowledge Products': 'ASDF', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': 'ASDF', 'Other Information': 'ASDF'}, 'Annexes_Saved': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>46002.76891282848</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Engaged Partner Goal</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'asdf', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ']}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships ', 'AGGREGATE'): {'FTEs': '12', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/notes_2_1765477631.png']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46002.76891282848</v>
+        <v>46002.76891282407</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -516,6 +516,26 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'asdf', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ']}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships ', 'AGGREGATE'): {'FTEs': '12', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/notes_2_1765477631.png']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>46002.77476827355</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ASDF</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Forward-looking Organization Goal</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'ASDF', 'Director': 'ASDF', 'Date': '2025-12-11', 'Version': 'ASDF', 'FTEs': 'ASDF', 'Financial Resources': 'ASDF', 'Director Signature': 'Yes'}, 'Selected Goals': ['Forward-looking Organization Goal'], 'Aggregate Objectives': {'Forward-looking Organization Goal': ["Strengthen the Secretariat's digital and AI capabilities\xa0and security"]}, 'Activities': {('Forward-looking Organization Goal', "Strengthen the Secretariat's digital and AI capabilities\xa0and security"): {'activities': [], 'results': []}}, 'Goal Metrics': {'Forward-looking Organization Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/notes_1_1765478136.png']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46002.77476827355</v>
+        <v>46002.77476827546</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -536,6 +536,26 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'ASDF', 'Director': 'ASDF', 'Date': '2025-12-11', 'Version': 'ASDF', 'FTEs': 'ASDF', 'Financial Resources': 'ASDF', 'Director Signature': 'Yes'}, 'Selected Goals': ['Forward-looking Organization Goal'], 'Aggregate Objectives': {'Forward-looking Organization Goal': ["Strengthen the Secretariat's digital and AI capabilities\xa0and security"]}, 'Activities': {('Forward-looking Organization Goal', "Strengthen the Secretariat's digital and AI capabilities\xa0and security"): {'activities': [], 'results': []}}, 'Goal Metrics': {'Forward-looking Organization Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/notes_1_1765478136.png']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>46002.77987869792</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Global Platform Goal</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'def', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Global Platform Goal'], 'Aggregate Objectives': {'Global Platform Goal': ['Manage press, media relations and social media']}, 'Activities': {('Global Platform Goal', 'Manage press, media relations and social media'): {'activities': ['asdf'], 'results': ['asfd']}}, 'Goal Metrics': {'Global Platform Goal': {'FTEs': '12', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '12', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/PowerBI pic_1765478578.png']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +541,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46002.77987869792</v>
+        <v>46002.7798787037</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -556,6 +556,26 @@
       <c r="D6" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'def', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Global Platform Goal'], 'Aggregate Objectives': {'Global Platform Goal': ['Manage press, media relations and social media']}, 'Activities': {('Global Platform Goal', 'Manage press, media relations and social media'): {'activities': ['asdf'], 'results': ['asfd']}}, 'Goal Metrics': {'Global Platform Goal': {'FTEs': '12', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '12', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/PowerBI pic_1765478578.png']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>46002.78421638353</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Knowledge Hub Goal</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'asdf', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Knowledge Hub Goal'], 'Aggregate Objectives': {'Knowledge Hub Goal': ['Ensure the timely delivery of key WTO publications, statistics, data and products']}, 'Activities': {('Knowledge Hub Goal', 'Ensure the timely delivery of key WTO publications, statistics, data and products'): {'activities': ['asdf'], 'results': []}}, 'Goal Metrics': {'Knowledge Hub Goal': {'FTEs': 'asdf', 'Financial Resources': 'asfd', 'KPIs': 'asdf', 'Other Metrics': 'asdf'}}, 'Objective/Result Metrics': {('Knowledge Hub Goal', 'Ensure the timely delivery of key WTO publications, statistics, data and products', 'AGGREGATE'): {'FTEs': '12', 'Financial Resources': '12', 'KPIs': '', 'Other Metrics': ''}}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': 'asdf', 'Cross-Divisional Initiatives': 'asfd', 'Projects/Networks': 'asdf', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/notes_1_1765478952.png']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46002.78421638353</v>
+        <v>46002.78421638889</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -576,6 +576,26 @@
       <c r="D7" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'asdf', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Knowledge Hub Goal'], 'Aggregate Objectives': {'Knowledge Hub Goal': ['Ensure the timely delivery of key WTO publications, statistics, data and products']}, 'Activities': {('Knowledge Hub Goal', 'Ensure the timely delivery of key WTO publications, statistics, data and products'): {'activities': ['asdf'], 'results': []}}, 'Goal Metrics': {'Knowledge Hub Goal': {'FTEs': 'asdf', 'Financial Resources': 'asfd', 'KPIs': 'asdf', 'Other Metrics': 'asdf'}}, 'Objective/Result Metrics': {('Knowledge Hub Goal', 'Ensure the timely delivery of key WTO publications, statistics, data and products', 'AGGREGATE'): {'FTEs': '12', 'Financial Resources': '12', 'KPIs': '', 'Other Metrics': ''}}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': 'asdf', 'Cross-Divisional Initiatives': 'asfd', 'Projects/Networks': 'asdf', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/notes_1_1765478952.png']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>46002.7907837004</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>JUJUU</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Engaged Partner Goal</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'JUJUU', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ']}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/PowerBI pic_1765479520.png']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,7 +581,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46002.7907837004</v>
+        <v>46002.79078370371</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -596,6 +596,26 @@
       <c r="D8" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'JUJUU', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ']}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/PowerBI pic_1765479520.png']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>46002.79484750455</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>yuyu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Excellent Service Goal</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'yuyu', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Facilitate and support negotiations and discussions on WTO Reform']}, 'Activities': {('Excellent Service Goal', 'Facilitate and support negotiations and discussions on WTO Reform'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/notes_1_1765479871.png']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,7 +601,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46002.79484750455</v>
+        <v>46002.7948475</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -616,6 +616,26 @@
       <c r="D9" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'yuyu', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Facilitate and support negotiations and discussions on WTO Reform']}, 'Activities': {('Excellent Service Goal', 'Facilitate and support negotiations and discussions on WTO Reform'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/notes_1_1765479871.png']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>46002.79829970394</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Engaged Partner Goal</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'ASD', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ']}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/Copilot promot for memo drafting.docx']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46002.79829970394</v>
+        <v>46002.79829969908</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -636,6 +636,26 @@
       <c r="D10" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'ASD', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ']}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/Copilot promot for memo drafting.docx']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>46002.80188360166</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ewrtwert</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Excellent Service Goal</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'ewrtwert', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Support Members in the preparation and submission of notifications']}, 'Activities': {('Excellent Service Goal', 'Support Members in the preparation and submission of notifications'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/Agenda proposed for KM FPs network event on 10.12.2025 (2).pdf']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,7 +641,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46002.80188360166</v>
+        <v>46002.80188359954</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -656,6 +656,26 @@
       <c r="D11" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'ewrtwert', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Support Members in the preparation and submission of notifications']}, 'Activities': {('Excellent Service Goal', 'Support Members in the preparation and submission of notifications'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/Agenda proposed for KM FPs network event on 10.12.2025 (2).pdf']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>46002.80785647316</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>iuoyluk</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Forward-looking Organization Goal</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'iuoyluk', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Forward-looking Organization Goal'], 'Aggregate Objectives': {'Forward-looking Organization Goal': ["Strengthen the Secretariat's digital and AI capabilities\xa0and security"]}, 'Activities': {('Forward-looking Organization Goal', "Strengthen the Secretariat's digital and AI capabilities\xa0and security"): {'activities': [], 'results': []}}, 'Goal Metrics': {'Forward-looking Organization Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/PowerBI pic_1765480993.png']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,7 +661,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46002.80785647316</v>
+        <v>46002.80785646991</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -676,6 +676,26 @@
       <c r="D12" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'iuoyluk', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Forward-looking Organization Goal'], 'Aggregate Objectives': {'Forward-looking Organization Goal': ["Strengthen the Secretariat's digital and AI capabilities\xa0and security"]}, 'Activities': {('Forward-looking Organization Goal', "Strengthen the Secretariat's digital and AI capabilities\xa0and security"): {'activities': [], 'results': []}}, 'Goal Metrics': {'Forward-looking Organization Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/PowerBI pic_1765480993.png']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>46002.87551908131</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>wergwg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Excellent Service Goal</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'wergwg', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Deliver technical assistance and capacity-building']}, 'Activities': {('Excellent Service Goal', 'Deliver technical assistance and capacity-building'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/The KM Network Charter (1).pptx']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,7 +681,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46002.87551908131</v>
+        <v>46002.87551908565</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -696,6 +696,26 @@
       <c r="D13" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'wergwg', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Deliver technical assistance and capacity-building']}, 'Activities': {('Excellent Service Goal', 'Deliver technical assistance and capacity-building'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/The KM Network Charter (1).pptx']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>46002.88371686706</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Global Platform Goal</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'fg', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Global Platform Goal'], 'Aggregate Objectives': {'Global Platform Goal': ['Promote outreach to Members and other stakeholders through the organization and support of events, briefings and programs']}, 'Activities': {('Global Platform Goal', 'Promote outreach to Members and other stakeholders through the organization and support of events, briefings and programs'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Global Platform Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/notes_1_1765487548.png']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,7 +701,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46002.88371686706</v>
+        <v>46002.88371686343</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -716,6 +716,26 @@
       <c r="D14" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'fg', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Global Platform Goal'], 'Aggregate Objectives': {'Global Platform Goal': ['Promote outreach to Members and other stakeholders through the organization and support of events, briefings and programs']}, 'Activities': {('Global Platform Goal', 'Promote outreach to Members and other stakeholders through the organization and support of events, briefings and programs'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Global Platform Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/notes_1_1765487548.png']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>46002.90430487884</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ASDF</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Forward-looking Organization Goal</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'ASDF', 'Director': 'ASDF', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Forward-looking Organization Goal'], 'Aggregate Objectives': {'Forward-looking Organization Goal': ['Build capabilities to adapt to current challenges, anticipate and prepare for future circumstances']}, 'Activities': {('Forward-looking Organization Goal', 'Build capabilities to adapt to current challenges, anticipate and prepare for future circumstances'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Forward-looking Organization Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/test 2.ics']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,7 +721,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46002.90430487884</v>
+        <v>46002.90430488426</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -736,6 +736,26 @@
       <c r="D15" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'ASDF', 'Director': 'ASDF', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Forward-looking Organization Goal'], 'Aggregate Objectives': {'Forward-looking Organization Goal': ['Build capabilities to adapt to current challenges, anticipate and prepare for future circumstances']}, 'Activities': {('Forward-looking Organization Goal', 'Build capabilities to adapt to current challenges, anticipate and prepare for future circumstances'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Forward-looking Organization Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/test 2.ics']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>46002.91414183586</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ASDF</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Forward-looking Organization Goal</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'ASDF', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Forward-looking Organization Goal'], 'Aggregate Objectives': {'Forward-looking Organization Goal': ['Implement modern organizational policies, practices and tools']}, 'Activities': {('Forward-looking Organization Goal', 'Implement modern organizational policies, practices and tools'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Forward-looking Organization Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/test WCP.ics']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +741,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46002.91414183586</v>
+        <v>46002.91414184028</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -756,6 +756,22 @@
       <c r="D16" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'ASDF', 'Director': '', 'Date': '2025-12-11', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Forward-looking Organization Goal'], 'Aggregate Objectives': {'Forward-looking Organization Goal': ['Implement modern organizational policies, practices and tools']}, 'Activities': {('Forward-looking Organization Goal', 'Implement modern organizational policies, practices and tools'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Forward-looking Organization Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/test WCP.ics']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>46003.43655848369</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Engaged Partner Goal, Forward-looking Organization Goal</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': '', 'Director': '', 'Date': '2025-12-12', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal', 'Forward-looking Organization Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships '], 'Forward-looking Organization Goal': ['Implement modern organizational policies, practices and tools']}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': [], 'results': []}, ('Forward-looking Organization Goal', 'Implement modern organizational policies, practices and tools'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}, 'Forward-looking Organization Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/app.txt']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,7 +761,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46003.43655848369</v>
+        <v>46003.43655848379</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
@@ -772,6 +772,26 @@
       <c r="D17" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': '', 'Director': '', 'Date': '2025-12-12', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal', 'Forward-looking Organization Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships '], 'Forward-looking Organization Goal': ['Implement modern organizational policies, practices and tools']}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': [], 'results': []}, ('Forward-looking Organization Goal', 'Implement modern organizational policies, practices and tools'): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}, 'Forward-looking Organization Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/app.txt']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>46003.4507450694</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Engaged Partner Goal</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'asdf', 'Director': 'asdfasf', 'Date': '2025-12-12', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ']}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/PowerBI pic_1765536537.png']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,7 +777,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46003.4507450694</v>
+        <v>46003.45074506944</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -792,6 +792,26 @@
       <c r="D18" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'asdf', 'Director': 'asdfasf', 'Date': '2025-12-12', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ']}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/PowerBI pic_1765536537.png']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>46003.46266341477</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Engaged Partner Goal</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'asdf', 'Director': 'asdf', 'Date': '2025-12-12', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ']}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/notes_1_1765537568.png']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,7 +797,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46003.46266341477</v>
+        <v>46003.46266341435</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -812,6 +812,26 @@
       <c r="D19" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'asdf', 'Director': 'asdf', 'Date': '2025-12-12', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ']}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/notes_1_1765537568.png']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>46003.46705429913</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>dhjd</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Engaged Partner Goal</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'dhjd', 'Director': '', 'Date': '2025-12-12', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ']}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Annexes_Saved': ['/tmp/annexes/notes_1_1765537947.png'], 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Objective/Result Metrics': {}}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,7 +817,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46003.46705429913</v>
+        <v>46003.46705429398</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -832,6 +832,26 @@
       <c r="D20" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'dhjd', 'Director': '', 'Date': '2025-12-12', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ']}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Annexes_Saved': ['/tmp/annexes/notes_1_1765537947.png'], 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Objective/Result Metrics': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>46003.46951781835</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Global Platform Goal</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'asdf', 'Director': '', 'Date': '2025-12-12', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Global Platform Goal'], 'Aggregate Objectives': {'Global Platform Goal': ["Leverage the WTO's convening power and technology to foster dialogue and cooperation on trade issues"]}, 'Activities': {('Global Platform Goal', "Leverage the WTO's convening power and technology to foster dialogue and cooperation on trade issues"): {'activities': [], 'results': []}}, 'Goal Metrics': {'Global Platform Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/test WCP_1765538162.ics']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +837,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46003.46951781835</v>
+        <v>46003.46951782407</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -852,6 +852,26 @@
       <c r="D21" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'asdf', 'Director': '', 'Date': '2025-12-12', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Global Platform Goal'], 'Aggregate Objectives': {'Global Platform Goal': ["Leverage the WTO's convening power and technology to foster dialogue and cooperation on trade issues"]}, 'Activities': {('Global Platform Goal', "Leverage the WTO's convening power and technology to foster dialogue and cooperation on trade issues"): {'activities': [], 'results': []}}, 'Goal Metrics': {'Global Platform Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/test WCP_1765538162.ics']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>46003.47090334836</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Engaged Partner Goal</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'asdf', 'Director': '', 'Date': '2025-12-12', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Improve\xa0transparency, coordination and use of technology in the management of partnerships ']}, 'Activities': {('Engaged Partner Goal', 'Improve\xa0transparency, coordination and use of technology in the management of partnerships '): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/PowerBI pic_1765538284.png']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -857,7 +857,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46003.47090334836</v>
+        <v>46003.47090334491</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -872,6 +872,26 @@
       <c r="D22" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'asdf', 'Director': '', 'Date': '2025-12-12', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Improve\xa0transparency, coordination and use of technology in the management of partnerships ']}, 'Activities': {('Engaged Partner Goal', 'Improve\xa0transparency, coordination and use of technology in the management of partnerships '): {'activities': [], 'results': []}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/PowerBI pic_1765538284.png']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>46003.47213793798</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dhdfh</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Forward-looking Organization Goal</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'dhdfh', 'Director': '', 'Date': '2025-12-12', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Forward-looking Organization Goal'], 'Aggregate Objectives': {'Forward-looking Organization Goal': ['Implement divisional staff survey action plans']}, 'Activities': {('Forward-looking Organization Goal', 'Implement divisional staff survey action plans'): {'activities': ['df'], 'results': []}}, 'Goal Metrics': {'Forward-looking Organization Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/Outputs.pdf']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,7 +877,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46003.47213793798</v>
+        <v>46003.47213793982</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -892,6 +892,26 @@
       <c r="D23" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'dhdfh', 'Director': '', 'Date': '2025-12-12', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Forward-looking Organization Goal'], 'Aggregate Objectives': {'Forward-looking Organization Goal': ['Implement divisional staff survey action plans']}, 'Activities': {('Forward-looking Organization Goal', 'Implement divisional staff survey action plans'): {'activities': ['df'], 'results': []}}, 'Goal Metrics': {'Forward-looking Organization Goal': {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': '', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/Outputs.pdf']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>46003.47793920327</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ASDF</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Excellent Service Goal</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'ASDF', 'Director': 'ASDF', 'Date': '2025-12-12', 'Version': '12', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Facilitate and support negotiations and discussions on WTO Reform', 'ASDF']}, 'Activities': {('Excellent Service Goal', 'Facilitate and support negotiations and discussions on WTO Reform'): {'activities': ['ASDF'], 'results': ['ASDF']}, ('Excellent Service Goal', 'ASDF'): {'activities': ['ASDF'], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '12', 'Financial Resources': '23', 'KPIs': 'ASDFASDF', 'Other Metrics': 'ASDFASFD'}}, 'Objective/Result Metrics': {('Excellent Service Goal', 'Facilitate and support negotiations and discussions on WTO Reform', 'AGGREGATE'): {'FTEs': '12', 'Financial Resources': '23', 'KPIs': '12', 'Other Metrics': 'ASDF'}, ('Excellent Service Goal', 'Facilitate and support negotiations and discussions on WTO Reform', 'RES_ASDF'): {'FTEs': '12', 'Financial Resources': '23', 'KPIs': 'ASDF', 'Other Metrics': 'ASDF'}, ('Excellent Service Goal', 'ASDF', 'AGGREGATE'): {'FTEs': '12', 'Financial Resources': '23', 'KPIs': 'ASDFASDF', 'Other Metrics': 'ASDF'}}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': 'ASDF', 'Knowledge Management': 'ASDF', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/Copilot promot for memo drafting_1765538888.docx', '/tmp/annexes/test 2_1765538889.ics', '/tmp/annexes/test WCP_1765538889.ics']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,7 +897,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46003.47793920327</v>
+        <v>46003.47793920139</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -912,6 +912,26 @@
       <c r="D24" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'ASDF', 'Director': 'ASDF', 'Date': '2025-12-12', 'Version': '12', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Facilitate and support negotiations and discussions on WTO Reform', 'ASDF']}, 'Activities': {('Excellent Service Goal', 'Facilitate and support negotiations and discussions on WTO Reform'): {'activities': ['ASDF'], 'results': ['ASDF']}, ('Excellent Service Goal', 'ASDF'): {'activities': ['ASDF'], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '12', 'Financial Resources': '23', 'KPIs': 'ASDFASDF', 'Other Metrics': 'ASDFASFD'}}, 'Objective/Result Metrics': {('Excellent Service Goal', 'Facilitate and support negotiations and discussions on WTO Reform', 'AGGREGATE'): {'FTEs': '12', 'Financial Resources': '23', 'KPIs': '12', 'Other Metrics': 'ASDF'}, ('Excellent Service Goal', 'Facilitate and support negotiations and discussions on WTO Reform', 'RES_ASDF'): {'FTEs': '12', 'Financial Resources': '23', 'KPIs': 'ASDF', 'Other Metrics': 'ASDF'}, ('Excellent Service Goal', 'ASDF', 'AGGREGATE'): {'FTEs': '12', 'Financial Resources': '23', 'KPIs': 'ASDFASDF', 'Other Metrics': 'ASDF'}}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': 'ASDF', 'Knowledge Management': 'ASDF', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/Copilot promot for memo drafting_1765538888.docx', '/tmp/annexes/test 2_1765538889.ics', '/tmp/annexes/test WCP_1765538889.ics']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>46003.47813806639</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ASDF</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Excellent Service Goal</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': 'ASDF', 'Director': 'ASDF', 'Date': '2025-12-12', 'Version': '12', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Facilitate and support negotiations and discussions on WTO Reform', 'ASDF']}, 'Activities': {('Excellent Service Goal', 'Facilitate and support negotiations and discussions on WTO Reform'): {'activities': ['ASDF'], 'results': ['ASDF']}, ('Excellent Service Goal', 'ASDF'): {'activities': ['ASDF'], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '12', 'Financial Resources': '23', 'KPIs': 'ASDFASDF', 'Other Metrics': 'ASDFASFD'}}, 'Objective/Result Metrics': {('Excellent Service Goal', 'Facilitate and support negotiations and discussions on WTO Reform', 'AGGREGATE'): {'FTEs': '12', 'Financial Resources': '23', 'KPIs': '12', 'Other Metrics': 'ASDF'}, ('Excellent Service Goal', 'Facilitate and support negotiations and discussions on WTO Reform', 'RES_ASDF'): {'FTEs': '12', 'Financial Resources': '23', 'KPIs': 'ASDF', 'Other Metrics': 'ASDF'}, ('Excellent Service Goal', 'ASDF', 'AGGREGATE'): {'FTEs': '12', 'Financial Resources': '23', 'KPIs': 'ASDFASDF', 'Other Metrics': 'ASDF'}}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': 'ASDF', 'Knowledge Management': 'ASDF', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/Copilot promot for memo drafting_1765538888.docx', '/tmp/annexes/test 2_1765538889.ics', '/tmp/annexes/test WCP_1765538889.ics', '/tmp/annexes/Copilot promot for memo drafting_1765538894.docx', '/tmp/annexes/test 2_1765538895.ics', '/tmp/annexes/test WCP_1765538896.ics']}</t>
         </is>
       </c>
     </row>

--- a/master_log.xlsx
+++ b/master_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,7 +917,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46003.47813806639</v>
+        <v>46003.47813806713</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -932,6 +932,22 @@
       <c r="D25" t="inlineStr">
         <is>
           <t>{'Cover': {'Division': 'ASDF', 'Director': 'ASDF', 'Date': '2025-12-12', 'Version': '12', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Excellent Service Goal'], 'Aggregate Objectives': {'Excellent Service Goal': ['Facilitate and support negotiations and discussions on WTO Reform', 'ASDF']}, 'Activities': {('Excellent Service Goal', 'Facilitate and support negotiations and discussions on WTO Reform'): {'activities': ['ASDF'], 'results': ['ASDF']}, ('Excellent Service Goal', 'ASDF'): {'activities': ['ASDF'], 'results': []}}, 'Goal Metrics': {'Excellent Service Goal': {'FTEs': '12', 'Financial Resources': '23', 'KPIs': 'ASDFASDF', 'Other Metrics': 'ASDFASFD'}}, 'Objective/Result Metrics': {('Excellent Service Goal', 'Facilitate and support negotiations and discussions on WTO Reform', 'AGGREGATE'): {'FTEs': '12', 'Financial Resources': '23', 'KPIs': '12', 'Other Metrics': 'ASDF'}, ('Excellent Service Goal', 'Facilitate and support negotiations and discussions on WTO Reform', 'RES_ASDF'): {'FTEs': '12', 'Financial Resources': '23', 'KPIs': 'ASDF', 'Other Metrics': 'ASDF'}, ('Excellent Service Goal', 'ASDF', 'AGGREGATE'): {'FTEs': '12', 'Financial Resources': '23', 'KPIs': 'ASDFASDF', 'Other Metrics': 'ASDF'}}, 'Additional': {'Partnerships': '', 'Events': '', 'Knowledge Products': 'ASDF', 'Knowledge Management': 'ASDF', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/Copilot promot for memo drafting_1765538888.docx', '/tmp/annexes/test 2_1765538889.ics', '/tmp/annexes/test WCP_1765538889.ics', '/tmp/annexes/Copilot promot for memo drafting_1765538894.docx', '/tmp/annexes/test 2_1765538895.ics', '/tmp/annexes/test WCP_1765538896.ics']}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>46003.55374874923</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Engaged Partner Goal</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>{'Cover': {'Division': '', 'Director': '', 'Date': '2025-12-12', 'Version': '', 'FTEs': '', 'Financial Resources': '', 'Director Signature': 'Yes'}, 'Selected Goals': ['Engaged Partner Goal'], 'Aggregate Objectives': {'Engaged Partner Goal': ['Develop, review, and strengthen\xa0partnerships ']}, 'Activities': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships '): {'activities': ['asdf'], 'results': ['asdf']}}, 'Goal Metrics': {'Engaged Partner Goal': {'FTEs': '12', 'Financial Resources': '23', 'KPIs': '', 'Other Metrics': ''}}, 'Objective/Result Metrics': {('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships ', 'AGGREGATE'): {'FTEs': '12', 'Financial Resources': '23', 'KPIs': '', 'Other Metrics': ''}, ('Engaged Partner Goal', 'Develop, review, and strengthen\xa0partnerships ', 'RES_asdf'): {'FTEs': '', 'Financial Resources': '', 'KPIs': '', 'Other Metrics': ''}}, 'Additional': {'Partnerships': '', 'Events': 'asdf', 'Knowledge Products': 'asdf', 'Knowledge Management': '', 'Cross-Divisional Initiatives': '', 'Projects/Networks': '', 'Risks': '', 'Other Information': ''}, 'Annexes_Saved': ['/tmp/annexes/app_1765545439.txt']}</t>
         </is>
       </c>
     </row>
